--- a/dataFiles/onboardingMH.xlsx
+++ b/dataFiles/onboardingMH.xlsx
@@ -882,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/dataFiles/onboardingMH.xlsx
+++ b/dataFiles/onboardingMH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
   <si>
     <t>Field</t>
   </si>
@@ -165,33 +165,6 @@
     <t>SkipAndGoHome</t>
   </si>
   <si>
-    <t>pain</t>
-  </si>
-  <si>
-    <t>Tiredness</t>
-  </si>
-  <si>
-    <t>Nausea</t>
-  </si>
-  <si>
-    <t>Drowsiness</t>
-  </si>
-  <si>
-    <t>Appetite</t>
-  </si>
-  <si>
-    <t>Shortness</t>
-  </si>
-  <si>
-    <t>Depression</t>
-  </si>
-  <si>
-    <t>Anxiety</t>
-  </si>
-  <si>
-    <t>Wellbeing</t>
-  </si>
-  <si>
     <t>PHQ9_Question_1</t>
   </si>
   <si>
@@ -417,18 +390,6 @@
     <t>SKIP AND GO HOME</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Not at all</t>
   </si>
   <si>
@@ -495,13 +456,34 @@
     <t>Mental Health</t>
   </si>
   <si>
-    <t>Writedata1</t>
-  </si>
-  <si>
-    <t>prabhaebcf3891mailinator.com</t>
-  </si>
-  <si>
-    <t>prabha0011@mailinator.com</t>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Not Difficult at all</t>
+  </si>
+  <si>
+    <t>Testdata2</t>
+  </si>
+  <si>
+    <t>Testdata3</t>
+  </si>
+  <si>
+    <t>Testdata4</t>
+  </si>
+  <si>
+    <t>Extremely Difficult</t>
+  </si>
+  <si>
+    <t>Selecting "Not at All" as an Option for all the questions in the Health Assessment of Mental Health Onboarding.</t>
+  </si>
+  <si>
+    <t>Selecting "Several Days" as an Option for all the questions in the Health Assessment of  Mental Health Onboarding.</t>
+  </si>
+  <si>
+    <t>Selecting "More than half the days" as an Option for all the questions in the Health Assessment of  Mental Health Onboarding.</t>
+  </si>
+  <si>
+    <t>Selecting "Nearly Every Day" as an Option for all the questions in the Health Assessment of  Mental Health Onboarding.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +516,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,9 +585,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -880,811 +874,1425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CR3"/>
+  <dimension ref="A1:CJ5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="45.5703125" customWidth="1"/>
-    <col min="43" max="43" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="54.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="61" max="63" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="65" max="66" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="18" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="29" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="27" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="12" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="15" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="9" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="10" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="45.5703125" customWidth="1"/>
+    <col min="44" max="44" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="55" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="64" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="29" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="27" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="12" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="15" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="9" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="10" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="CA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="CH1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="CH1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="CI1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:88" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="P2" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ2" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BA2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BB2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BF2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BI2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BJ2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BL2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BM2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BN2" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="BO2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BP2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ2" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR2" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS2" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA2" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="CD2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI2" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ2" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:88" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="L3" s="4" t="s">
         <v>93</v>
       </c>
+      <c r="M3" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AZ3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BA3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BB3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BC3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BD3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BF3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BG3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BH3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BI3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BJ3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BK3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BL3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BM3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BN3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="BO3" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP3" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ3" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS3" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT3" s="7"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA3" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB3" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC3" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="CD3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG3" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI3" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ3" s="7" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="2" spans="1:96" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="4" spans="1:88" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="Q4" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="R4" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="S4" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="U4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ4" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AO4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="AP4" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR4" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU4" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AW4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BA4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BB4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BC4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BE4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BF4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BG4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BI4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BJ4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BK4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BL4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BM4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BN4" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="BO4" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ4" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="BR4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BS4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BW4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="BX4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BY4" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CA4" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC4" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="CD4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="CE4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="CF4" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="CG4" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CH4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="CI4" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="CJ4" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:88" s="10" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="U5" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="V5" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="W5" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="Y5" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Z5" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="6" t="s">
+      <c r="AA5" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="AB5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="AC5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="R2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="S2" s="6" t="s">
+      <c r="AD5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="AF5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="AI5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="V2" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="AJ5" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AK5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AL5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AM5" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AN5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AO5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ5" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AC2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD2" s="6" t="s">
+      <c r="AR5" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="AE2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="AG2" s="6" t="s">
+      <c r="AS5" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AT5" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AI2" s="6" t="s">
+      <c r="AU5" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="AJ2" s="6" t="s">
+      <c r="AV5" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="AK2" s="6" t="s">
+      <c r="AW5" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="AL2" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AP2" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+      <c r="AX5" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AY5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN5" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="BP5" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="AU2" s="8" t="s">
+      <c r="BQ5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="BR5" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="BS5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="BT5" s="7"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="AY2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="BW5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BX5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="BB2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF2" s="9" t="s">
+      <c r="BY5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BZ5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="BG2" s="9" t="s">
+      <c r="CA5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CB5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="CC5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BH2" s="9" t="s">
+      <c r="CD5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="BI2" s="9" t="s">
+      <c r="CE5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="BJ2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BL2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="BN2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BO2" s="9" t="s">
+      <c r="CF5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="BP2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BQ2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BR2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BS2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="BT2" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="BU2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BV2" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="BW2" s="9" t="s">
+      <c r="CG5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BX2" s="7" t="s">
+      <c r="CH5" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="BY2" s="7" t="s">
+      <c r="CI5" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="BZ2" s="7" t="s">
+      <c r="CJ5" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="CA2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="CB2" s="7"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="CE2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="CG2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="CH2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="CI2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="CJ2" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="CK2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="CL2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="CM2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="CN2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="CO2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="CP2" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="CQ2" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="CR2" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:96" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="12"/>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="12"/>
-      <c r="AO3" s="12"/>
-      <c r="AP3" s="12"/>
-      <c r="AQ3" s="12"/>
-      <c r="AR3" s="12"/>
-      <c r="AS3" s="12"/>
-      <c r="AT3" s="12"/>
-      <c r="AU3" s="12"/>
-      <c r="AV3" s="12"/>
-      <c r="AW3" s="12"/>
-      <c r="AX3" s="12"/>
-      <c r="AY3" s="12"/>
-      <c r="AZ3" s="12"/>
-      <c r="BA3" s="12"/>
-      <c r="BB3" s="12"/>
-      <c r="BC3" s="12"/>
-      <c r="BD3" s="12"/>
-      <c r="BE3" s="12"/>
-      <c r="BF3" s="12"/>
-      <c r="BG3" s="12"/>
-      <c r="BH3" s="12"/>
-      <c r="BI3" s="12"/>
-      <c r="BJ3" s="12"/>
-      <c r="BK3" s="12"/>
-      <c r="BL3" s="12"/>
-      <c r="BM3" s="12"/>
-      <c r="BN3" s="12"/>
-      <c r="BO3" s="12"/>
-      <c r="BP3" s="12"/>
-      <c r="BQ3" s="12"/>
-      <c r="BR3" s="12"/>
-      <c r="BS3" s="12"/>
-      <c r="BT3" s="12"/>
-      <c r="BU3" s="12"/>
-      <c r="BV3" s="12"/>
-      <c r="BW3" s="12"/>
-      <c r="BX3" s="12"/>
-      <c r="BY3" s="12"/>
-      <c r="BZ3" s="12"/>
-      <c r="CA3" s="12"/>
-      <c r="CB3" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="CC3" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="CD3" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="CE3" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="CF3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="CG3" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="CH3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="CI3" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="CJ3" s="12"/>
-      <c r="CK3" s="12"/>
-      <c r="CL3" s="12"/>
-      <c r="CM3" s="12"/>
-      <c r="CN3" s="12"/>
-      <c r="CO3" s="12"/>
-      <c r="CP3" s="12"/>
-      <c r="CQ3" s="12"/>
-      <c r="CR3" s="12"/>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BF2:BN2 BP2:BV2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX2:BF2 BH2:BN2 AX3:BF3 BH3:BN3 AX4:BF4 BH4:BN4 AX5:BF5 BH5:BN5">
       <formula1>"Not at all, Several Days, More than half the days, Nearly every day"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CR2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="CJ2 CJ3 CJ4 CJ5">
       <formula1>"Mental Health,Cancer,Chronic Disease,Elder Care"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BX2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BP2 BP3 BP4 BP5">
       <formula1>"Employee,Student"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BG2 BG3 BG4 BG5">
       <formula1>"  Not Difficult at all, Somewhat Difficult, Very Difficult, Extremely Difficult"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BW2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO2 BO3 BO4 BO5">
       <formula1>"Not Difficult at all,Somewhat Difficult,Very Difficult,Extremely Difficult"</formula1>
     </dataValidation>
   </dataValidations>
